--- a/Assets/StreamingAssets/StoryScript21.xlsx
+++ b/Assets/StreamingAssets/StoryScript21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B793EE3-B5C7-0645-A8B9-CA90ABD71D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ACFBCF-A027-3540-815C-6579EFB2CD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yes. While investigating the study, we found a book in the shelf containing his flying blade technique.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The first blade was thrown by the Lord to sever the bridge and then fell into the abyss.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +408,9 @@
   <si>
     <t>History16</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes. While investigating the study, we found a book in the shelf containing his &lt;color=#FFCC000&gt;flying blade technique&lt;/color&gt;.</t>
   </si>
 </sst>
 </file>
@@ -818,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1139,7 +1138,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1154,7 +1153,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="M14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>17</v>
@@ -1203,7 +1202,7 @@
       <c r="I16" s="2"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17">
@@ -1251,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -1269,7 +1268,7 @@
         <v>-500</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="34">
@@ -1289,7 +1288,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1410,7 +1409,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
@@ -1430,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -1450,7 +1449,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -1510,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -1710,7 +1709,7 @@
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
@@ -1748,7 +1747,7 @@
         <v>-500</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17">
@@ -1776,7 +1775,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
         <v>41</v>
@@ -1788,7 +1787,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>

--- a/Assets/StreamingAssets/StoryScript21.xlsx
+++ b/Assets/StreamingAssets/StoryScript21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ACFBCF-A027-3540-815C-6579EFB2CD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA34E08-F5E2-1F4B-8313-20AA9A3E8BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -410,7 +410,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yes. While investigating the study, we found a book in the shelf containing his &lt;color=#FFCC000&gt;flying blade technique&lt;/color&gt;.</t>
+    <t>Yes. While investigating the study, we found a book in the shelf containing his &lt;color=#FFCC00&gt;flying blade technique&lt;/color&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -818,7 +819,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
